--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-596420.543623093</v>
+        <v>-597233.9908349812</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954288</v>
+        <v>2927877.34595429</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12720620.93536172</v>
+        <v>12720620.93536171</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.48862670395067</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1172887419689</v>
+        <v>289.117288741969</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>280.098592786497</v>
       </c>
       <c r="E11" t="n">
         <v>301.8407303564024</v>
@@ -1388,7 +1388,7 @@
         <v>234.9781829577618</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241311</v>
+        <v>61.32070768241314</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545166</v>
+        <v>84.08218037545171</v>
       </c>
       <c r="T11" t="n">
-        <v>130.7597296842795</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>163.296248452629</v>
@@ -1430,13 +1430,13 @@
         <v>244.6123490244663</v>
       </c>
       <c r="W11" t="n">
-        <v>269.9124485024232</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351698</v>
+        <v>173.6656143079573</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>300.6093045313686</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I12" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S12" t="n">
         <v>145.9169861849574</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898424</v>
+        <v>12.63802551598236</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438472</v>
+        <v>78.92267750438478</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.54404190196317</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>36.74613462490127</v>
+        <v>77.99174215033082</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366591</v>
+        <v>66.63306124366594</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.49600542227662</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.16276991271701</v>
       </c>
       <c r="S13" t="n">
-        <v>118.363767619385</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>140.8174128706117</v>
       </c>
       <c r="U13" t="n">
-        <v>195.3080224141332</v>
+        <v>195.3080224141333</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586098</v>
+        <v>169.1308190586099</v>
       </c>
       <c r="W13" t="n">
         <v>194.2977051292231</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250262</v>
+        <v>139.9428071250263</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.8176748810939</v>
+        <v>130.817674881094</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419688</v>
+        <v>289.117288741969</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864968</v>
+        <v>254.6168809594756</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564023</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F14" t="n">
-        <v>192.2986313945497</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922377</v>
+        <v>322.4070376922379</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577617</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241303</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545159</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842794</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>163.296248452629</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024231</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351697</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>133.3468600696254</v>
       </c>
       <c r="G15" t="n">
         <v>127.1529440554385</v>
@@ -1704,7 +1704,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I15" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.28834215945767</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S15" t="n">
         <v>145.9169861849574</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.58423205904862</v>
+        <v>92.7226826589843</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438464</v>
+        <v>78.92267750438478</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196303</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774248</v>
+        <v>61.49179175774262</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592878</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033068</v>
+        <v>77.99174215033082</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366581</v>
+        <v>63.53459175472257</v>
       </c>
       <c r="I16" t="n">
-        <v>46.49600542227648</v>
+        <v>46.49600542227662</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.1627699127169</v>
+        <v>48.16276991271701</v>
       </c>
       <c r="S16" t="n">
-        <v>118.3637676193849</v>
+        <v>118.363767619385</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706116</v>
+        <v>140.8174128706117</v>
       </c>
       <c r="U16" t="n">
-        <v>195.3080224141331</v>
+        <v>195.3080224141333</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586097</v>
+        <v>169.1308190586099</v>
       </c>
       <c r="W16" t="n">
-        <v>194.297705129223</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>139.9428071250263</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>130.817674881094</v>
       </c>
     </row>
     <row r="17">
@@ -1847,19 +1847,19 @@
         <v>212.1874972305284</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1688012750564</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E17" t="n">
         <v>224.9109388449619</v>
       </c>
       <c r="F17" t="n">
-        <v>244.0827549329391</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G17" t="n">
         <v>245.4772461807973</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0483914463213</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864010245</v>
+        <v>7.152388864011101</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283897</v>
+        <v>53.82993817283895</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118843</v>
+        <v>86.3664569411884</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6825575130258</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9826569909827</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237293</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y17" t="n">
         <v>223.679513019928</v>
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1529440554385</v>
+        <v>127.1529440554395</v>
       </c>
       <c r="H18" t="n">
         <v>96.15438866313485</v>
       </c>
       <c r="I18" t="n">
-        <v>57.77334520310427</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S18" t="n">
         <v>145.9169861849574</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754371</v>
+        <v>15.79289114754368</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944196</v>
+        <v>1.992885992944167</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890233</v>
+        <v>1.061950638890204</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.006104322176286</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43397610794447</v>
+        <v>41.43397610794444</v>
       </c>
       <c r="T19" t="n">
-        <v>63.88762135917114</v>
+        <v>63.88762135917111</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026927</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V19" t="n">
-        <v>92.2010275471693</v>
+        <v>92.20102754716928</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3679136177826</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358568</v>
+        <v>63.01301561358565</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965337</v>
+        <v>72.68993386504178</v>
       </c>
     </row>
     <row r="20">
@@ -2084,19 +2084,19 @@
         <v>212.1874972305284</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750564</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E20" t="n">
         <v>224.9109388449619</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0827549329391</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G20" t="n">
         <v>245.4772461807973</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463213</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864011144</v>
+        <v>7.152388864011101</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283897</v>
+        <v>53.82993817283895</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118843</v>
+        <v>86.3664569411884</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130258</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909827</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237293</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y20" t="n">
         <v>223.679513019928</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>157.8252483534492</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.4502506396911</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2178,7 +2178,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I21" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S21" t="n">
         <v>145.9169861849574</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754371</v>
+        <v>15.79289114754368</v>
       </c>
       <c r="C22" t="n">
-        <v>1.992885992944196</v>
+        <v>1.992885992944167</v>
       </c>
       <c r="D22" t="n">
-        <v>5.473028650362637</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890233</v>
+        <v>1.061950638890204</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794447</v>
+        <v>41.43397610794444</v>
       </c>
       <c r="T22" t="n">
-        <v>63.88762135917114</v>
+        <v>63.88762135917111</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026927</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V22" t="n">
-        <v>92.2010275471693</v>
+        <v>248.1629802938265</v>
       </c>
       <c r="W22" t="n">
-        <v>117.3679136177826</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358568</v>
+        <v>63.01301561358565</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965337</v>
+        <v>53.88788336965334</v>
       </c>
     </row>
     <row r="23">
@@ -2321,19 +2321,19 @@
         <v>212.1874972305284</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1688012750564</v>
+        <v>203.1688012750563</v>
       </c>
       <c r="E23" t="n">
         <v>224.9109388449619</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0827549329391</v>
+        <v>244.082754932939</v>
       </c>
       <c r="G23" t="n">
         <v>245.4772461807973</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0483914463213</v>
+        <v>158.0483914463212</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011129</v>
+        <v>7.152388864011101</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283898</v>
+        <v>53.82993817283895</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118843</v>
+        <v>86.3664569411884</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6825575130258</v>
+        <v>167.6825575130257</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9826569909827</v>
+        <v>192.9826569909826</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237293</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y23" t="n">
         <v>223.679513019928</v>
@@ -2415,7 +2415,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I24" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S24" t="n">
         <v>145.9169861849574</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79289114754371</v>
+        <v>15.79289114754368</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944196</v>
+        <v>1.992885992944167</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>5.473028650362637</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890233</v>
+        <v>1.061950638890204</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794447</v>
+        <v>197.3959288546017</v>
       </c>
       <c r="T25" t="n">
-        <v>63.88762135917114</v>
+        <v>63.88762135917111</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3782309026927</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V25" t="n">
-        <v>92.2010275471693</v>
+        <v>92.20102754716928</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177826</v>
+        <v>117.3679136177825</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358568</v>
+        <v>63.01301561358565</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965337</v>
+        <v>53.88788336965334</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804713</v>
+        <v>70.58016145804717</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V26" t="n">
         <v>231.1103301070618</v>
@@ -2652,7 +2652,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I27" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S27" t="n">
         <v>145.9169861849574</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157971</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C28" t="n">
-        <v>65.4206585869802</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D28" t="n">
-        <v>49.04202298455859</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033803</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852434</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292624</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626138</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487204</v>
+        <v>32.99398650487206</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531247</v>
       </c>
       <c r="S28" t="n">
         <v>104.8617487019805</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.6039528668826</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C29" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D29" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E29" t="n">
-        <v>288.3387114389978</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F29" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G29" t="n">
         <v>308.9050187748333</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500856</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.5801614580471</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
@@ -2849,16 +2849,16 @@
         <v>149.7942295352244</v>
       </c>
       <c r="V29" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W29" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X29" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.107285613964</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I30" t="n">
-        <v>57.77334520310321</v>
+        <v>57.77334520310322</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945687</v>
       </c>
       <c r="S30" t="n">
         <v>145.9169861849574</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157968</v>
+        <v>79.22066374157971</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698017</v>
+        <v>65.4206585869802</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455856</v>
+        <v>49.04202298455859</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033801</v>
+        <v>47.98977284033803</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852431</v>
+        <v>48.45669716852434</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292621</v>
+        <v>64.48972323292624</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626135</v>
+        <v>53.13104232626137</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487201</v>
+        <v>32.99398650487204</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531243</v>
+        <v>34.66075099531245</v>
       </c>
       <c r="S31" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U31" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V31" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W31" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X31" t="n">
         <v>126.4407882076217</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.6039528668826</v>
+        <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245643</v>
+        <v>275.6152698245644</v>
       </c>
       <c r="D32" t="n">
-        <v>266.5965738690923</v>
+        <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
-        <v>288.3387114389978</v>
+        <v>288.3387114389979</v>
       </c>
       <c r="F32" t="n">
-        <v>307.510527526975</v>
+        <v>307.5105275269751</v>
       </c>
       <c r="G32" t="n">
         <v>308.9050187748333</v>
       </c>
       <c r="H32" t="n">
-        <v>221.4761640403572</v>
+        <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500856</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.5801614580471</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T32" t="n">
         <v>117.257710766875</v>
@@ -3086,16 +3086,16 @@
         <v>149.7942295352244</v>
       </c>
       <c r="V32" t="n">
-        <v>231.1103301070617</v>
+        <v>231.1103301070618</v>
       </c>
       <c r="W32" t="n">
-        <v>256.4104295850186</v>
+        <v>256.4104295850187</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7106878177652</v>
+        <v>275.7106878177653</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.107285613964</v>
+        <v>287.1072856139641</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I33" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S33" t="n">
         <v>145.9169861849574</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157968</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698017</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455856</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033801</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852431</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292621</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626134</v>
+        <v>53.13104232626137</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487201</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531241</v>
+        <v>34.66075099531244</v>
       </c>
       <c r="S34" t="n">
-        <v>104.8617487019804</v>
+        <v>104.8617487019805</v>
       </c>
       <c r="T34" t="n">
         <v>127.3153939532071</v>
       </c>
       <c r="U34" t="n">
-        <v>181.8060034967286</v>
+        <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
         <v>155.6288001412053</v>
       </c>
       <c r="W34" t="n">
-        <v>180.7956862118185</v>
+        <v>180.7956862118186</v>
       </c>
       <c r="X34" t="n">
         <v>126.4407882076217</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3156559636893</v>
+        <v>117.3156559636894</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I36" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S36" t="n">
         <v>145.9169861849574</v>
@@ -3439,7 +3439,7 @@
         <v>14.40211851600881</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343942</v>
+        <v>3.04343760934394</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506304</v>
+        <v>54.77414398506303</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628972</v>
+        <v>77.22778923628971</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798112</v>
+        <v>151.2352351459385</v>
       </c>
       <c r="V37" t="n">
         <v>105.5411954242879</v>
@@ -3487,7 +3487,7 @@
         <v>130.7080814949011</v>
       </c>
       <c r="X37" t="n">
-        <v>77.95517635243007</v>
+        <v>76.35318349070425</v>
       </c>
       <c r="Y37" t="n">
         <v>67.22805124677194</v>
@@ -3600,7 +3600,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I39" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S39" t="n">
         <v>145.9169861849574</v>
@@ -3661,7 +3661,7 @@
         <v>29.13305902466229</v>
       </c>
       <c r="C40" t="n">
-        <v>34.84989023618991</v>
+        <v>15.33305387006277</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600881</v>
+        <v>16.00411137773482</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343942</v>
+        <v>3.04343760934394</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506304</v>
+        <v>54.77414398506303</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628972</v>
+        <v>77.22778923628971</v>
       </c>
       <c r="U40" t="n">
         <v>131.7183987798112</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.5163481499651</v>
+        <v>237.5163481499652</v>
       </c>
       <c r="C41" t="n">
-        <v>225.5276651076468</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5089691521748</v>
+        <v>216.5089691521749</v>
       </c>
       <c r="E41" t="n">
-        <v>238.2511067220803</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F41" t="n">
-        <v>257.4229228100575</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G41" t="n">
-        <v>258.8174140579157</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H41" t="n">
-        <v>171.3885593234397</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112956</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995741</v>
+        <v>67.1701060499575</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830686</v>
+        <v>99.70662481830695</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0227253901442</v>
+        <v>181.0227253901443</v>
       </c>
       <c r="W41" t="n">
-        <v>206.3228248681011</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X41" t="n">
-        <v>225.6230831008477</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.0196808970465</v>
+        <v>237.0196808970466</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I42" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S42" t="n">
         <v>145.9169861849574</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.13305902466215</v>
+        <v>29.13305902466223</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006263</v>
+        <v>15.33305387006271</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600866</v>
+        <v>14.40211851600875</v>
       </c>
       <c r="H43" t="n">
-        <v>3.0434376093438</v>
+        <v>3.043437609343883</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.51683636612858</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.7741439850629</v>
+        <v>54.77414398506298</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628958</v>
+        <v>77.22778923628965</v>
       </c>
       <c r="U43" t="n">
-        <v>131.7183987798111</v>
+        <v>151.2352351459393</v>
       </c>
       <c r="V43" t="n">
-        <v>105.5411954242877</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W43" t="n">
-        <v>130.708081494901</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070411</v>
+        <v>76.3531834907042</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.2280512467718</v>
+        <v>67.22805124677188</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.49255674112966</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T44" t="n">
         <v>67.1701060499575</v>
@@ -4074,7 +4074,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I45" t="n">
-        <v>57.77334520310321</v>
+        <v>57.7733452031032</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.28834215945686</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S45" t="n">
         <v>145.9169861849574</v>
@@ -4150,7 +4150,7 @@
         <v>14.40211851600875</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343885</v>
+        <v>3.043437609343883</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>19.51683636612811</v>
       </c>
       <c r="S46" t="n">
-        <v>74.29098035119083</v>
+        <v>54.77414398506298</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628967</v>
+        <v>77.22778923628965</v>
       </c>
       <c r="U46" t="n">
         <v>131.7183987798112</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1272.512093609927</v>
+        <v>1555.43996511144</v>
       </c>
       <c r="C11" t="n">
-        <v>980.4744282139992</v>
+        <v>1263.402299715511</v>
       </c>
       <c r="D11" t="n">
-        <v>980.4744282139992</v>
+        <v>980.4744282139991</v>
       </c>
       <c r="E11" t="n">
-        <v>675.5848015913705</v>
+        <v>675.5848015913703</v>
       </c>
       <c r="F11" t="n">
-        <v>675.5848015913705</v>
+        <v>675.5848015913703</v>
       </c>
       <c r="G11" t="n">
         <v>349.9211271547666</v>
@@ -5039,22 +5039,22 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J11" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K11" t="n">
-        <v>475.8880155938953</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L11" t="n">
-        <v>907.9461548436961</v>
+        <v>790.6768958565435</v>
       </c>
       <c r="M11" t="n">
-        <v>1394.843741810911</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N11" t="n">
-        <v>1679.700173710448</v>
+        <v>1751.079753389619</v>
       </c>
       <c r="O11" t="n">
-        <v>2074.574784355414</v>
+        <v>2145.954364034585</v>
       </c>
       <c r="P11" t="n">
         <v>2379.433668932841</v>
@@ -5069,22 +5069,22 @@
         <v>2446.534426037118</v>
       </c>
       <c r="T11" t="n">
-        <v>2314.453891002492</v>
+        <v>2446.534426037118</v>
       </c>
       <c r="U11" t="n">
-        <v>2149.508185494786</v>
+        <v>2281.588720529412</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.425004661992</v>
+        <v>2034.505539696617</v>
       </c>
       <c r="W11" t="n">
-        <v>1629.786167790857</v>
+        <v>2034.505539696617</v>
       </c>
       <c r="X11" t="n">
-        <v>1337.652120583615</v>
+        <v>1859.085727264337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1337.652120583615</v>
+        <v>1555.43996511144</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>206.1118778881641</v>
       </c>
       <c r="H12" t="n">
-        <v>108.9862327738861</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I12" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J12" t="n">
-        <v>137.8463925088447</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K12" t="n">
-        <v>413.4208828411996</v>
+        <v>326.203808759672</v>
       </c>
       <c r="L12" t="n">
-        <v>841.2082694571443</v>
+        <v>753.9911953756168</v>
       </c>
       <c r="M12" t="n">
-        <v>1398.552487108882</v>
+        <v>1129.281940533323</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.571119459617</v>
+        <v>1714.772304204092</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.672185824252</v>
+        <v>2174.873370568727</v>
       </c>
       <c r="P12" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.465921365857</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>234.7726248646422</v>
+        <v>386.5763166319852</v>
       </c>
       <c r="C13" t="n">
-        <v>155.052748597587</v>
+        <v>306.8564403649298</v>
       </c>
       <c r="D13" t="n">
-        <v>155.052748597587</v>
+        <v>243.6806404639569</v>
       </c>
       <c r="E13" t="n">
-        <v>155.052748597587</v>
+        <v>243.6806404639569</v>
       </c>
       <c r="F13" t="n">
-        <v>155.052748597587</v>
+        <v>243.6806404639569</v>
       </c>
       <c r="G13" t="n">
-        <v>117.9354408956665</v>
+        <v>164.9011029383703</v>
       </c>
       <c r="H13" t="n">
-        <v>50.62931842731714</v>
+        <v>97.5949804700208</v>
       </c>
       <c r="I13" t="n">
         <v>50.62931842731714</v>
@@ -5203,13 +5203,13 @@
         <v>246.2990519958641</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405359</v>
+        <v>470.584712840536</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447744</v>
+        <v>714.1904553447745</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068811</v>
+        <v>957.3332466068812</v>
       </c>
       <c r="O13" t="n">
         <v>1177.722352077497</v>
@@ -5221,28 +5221,28 @@
         <v>1428.10685896269</v>
       </c>
       <c r="R13" t="n">
-        <v>1428.10685896269</v>
+        <v>1379.457596424592</v>
       </c>
       <c r="S13" t="n">
-        <v>1308.547497730988</v>
+        <v>1379.457596424592</v>
       </c>
       <c r="T13" t="n">
-        <v>1166.307686750572</v>
+        <v>1237.217785444176</v>
       </c>
       <c r="U13" t="n">
-        <v>969.0268560292254</v>
+        <v>1039.936954722829</v>
       </c>
       <c r="V13" t="n">
-        <v>798.1876448589124</v>
+        <v>869.0977435525162</v>
       </c>
       <c r="W13" t="n">
-        <v>601.927336647576</v>
+        <v>672.8374353411798</v>
       </c>
       <c r="X13" t="n">
-        <v>460.5709658142161</v>
+        <v>531.4810645078198</v>
       </c>
       <c r="Y13" t="n">
-        <v>328.4319002777576</v>
+        <v>399.3419989713614</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1749.681006924116</v>
+        <v>1554.66415094698</v>
       </c>
       <c r="C14" t="n">
-        <v>1457.643341528188</v>
+        <v>1262.626485551051</v>
       </c>
       <c r="D14" t="n">
-        <v>1174.715470026676</v>
+        <v>1005.437716905117</v>
       </c>
       <c r="E14" t="n">
-        <v>869.8258434040467</v>
+        <v>700.5480902824877</v>
       </c>
       <c r="F14" t="n">
-        <v>675.5848015913701</v>
+        <v>376.292992863921</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547663</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H14" t="n">
-        <v>112.5694271974313</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I14" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J14" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K14" t="n">
-        <v>287.2391769275717</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L14" t="n">
-        <v>719.2973161773725</v>
+        <v>790.6768958565435</v>
       </c>
       <c r="M14" t="n">
         <v>1206.194903144587</v>
@@ -5303,25 +5303,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.534426037118</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="T14" t="n">
-        <v>2314.453891002492</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="U14" t="n">
-        <v>2314.453891002492</v>
+        <v>2366.520215858151</v>
       </c>
       <c r="V14" t="n">
-        <v>2314.453891002492</v>
+        <v>2119.437035025357</v>
       </c>
       <c r="W14" t="n">
-        <v>2041.815054131358</v>
+        <v>1846.798198154222</v>
       </c>
       <c r="X14" t="n">
-        <v>1749.681006924116</v>
+        <v>1554.66415094698</v>
       </c>
       <c r="Y14" t="n">
-        <v>1749.681006924116</v>
+        <v>1554.66415094698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.813312877967</v>
+        <v>916.813312877968</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189227</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091348</v>
       </c>
       <c r="E15" t="n">
-        <v>469.242993166005</v>
+        <v>469.242993166006</v>
       </c>
       <c r="F15" t="n">
         <v>334.5491951158793</v>
@@ -5355,22 +5355,22 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J15" t="n">
-        <v>137.8463925088447</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K15" t="n">
-        <v>413.4208828411996</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L15" t="n">
-        <v>841.2082694571443</v>
+        <v>841.2082694571445</v>
       </c>
       <c r="M15" t="n">
-        <v>1398.552487108882</v>
+        <v>1291.673306585978</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.571119459617</v>
+        <v>1877.163670256746</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.672185824252</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="P15" t="n">
         <v>2337.264736621381</v>
@@ -5379,28 +5379,28 @@
         <v>2531.465921365857</v>
       </c>
       <c r="R15" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T15" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U15" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V15" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y15" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>511.2737993023595</v>
+        <v>382.3836705378801</v>
       </c>
       <c r="C16" t="n">
-        <v>431.5539230353043</v>
+        <v>302.6637942708247</v>
       </c>
       <c r="D16" t="n">
-        <v>368.3781231343315</v>
+        <v>302.6637942708247</v>
       </c>
       <c r="E16" t="n">
-        <v>306.2652021669149</v>
+        <v>240.5508733034081</v>
       </c>
       <c r="F16" t="n">
-        <v>243.6806404639565</v>
+        <v>240.5508733034081</v>
       </c>
       <c r="G16" t="n">
-        <v>164.90110293837</v>
+        <v>161.7713357778214</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002066</v>
+        <v>97.5949804700208</v>
       </c>
       <c r="I16" t="n">
         <v>50.62931842731714</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413178</v>
+        <v>96.79005415413167</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958641</v>
+        <v>246.299051995864</v>
       </c>
       <c r="L16" t="n">
-        <v>470.584712840536</v>
+        <v>470.5847128405358</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447746</v>
+        <v>714.1904553447743</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068815</v>
+        <v>957.3332466068809</v>
       </c>
       <c r="O16" t="n">
-        <v>1177.722352077498</v>
+        <v>1177.722352077497</v>
       </c>
       <c r="P16" t="n">
-        <v>1357.735393016882</v>
+        <v>1357.735393016881</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.106858962691</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424593</v>
+        <v>1379.457596424592</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.898235192891</v>
+        <v>1259.89823519289</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.658424212475</v>
+        <v>1117.658424212474</v>
       </c>
       <c r="U16" t="n">
-        <v>920.3775934911286</v>
+        <v>920.377593491127</v>
       </c>
       <c r="V16" t="n">
-        <v>749.5383823208157</v>
+        <v>749.5383823208139</v>
       </c>
       <c r="W16" t="n">
-        <v>553.2780741094793</v>
+        <v>749.5383823208139</v>
       </c>
       <c r="X16" t="n">
-        <v>553.2780741094793</v>
+        <v>608.182011487454</v>
       </c>
       <c r="Y16" t="n">
-        <v>553.2780741094793</v>
+        <v>476.0429459509955</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.513793084494</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.182987801132</v>
+        <v>1137.182987801131</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121858</v>
+        <v>931.9619764121851</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021233</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961243</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G17" t="n">
         <v>210.2741582720861</v>
@@ -5516,10 +5516,10 @@
         <v>167.8985774144699</v>
       </c>
       <c r="K17" t="n">
-        <v>475.8880155938953</v>
+        <v>287.2391769275716</v>
       </c>
       <c r="L17" t="n">
-        <v>907.9461548436961</v>
+        <v>719.2973161773725</v>
       </c>
       <c r="M17" t="n">
         <v>1206.194903144587</v>
@@ -5543,22 +5543,22 @@
         <v>2524.241286149685</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.867611227626</v>
+        <v>2469.867611227625</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.628765832486</v>
+        <v>2382.628765832485</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.252445112258</v>
+        <v>2213.252445112257</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.32046835369</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.893281259014</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.954379218682</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>334.5491951158804</v>
       </c>
       <c r="G18" t="n">
-        <v>206.1118778881647</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H18" t="n">
-        <v>108.9862327738871</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I18" t="n">
         <v>50.62931842731714</v>
@@ -5595,22 +5595,22 @@
         <v>50.62931842731714</v>
       </c>
       <c r="K18" t="n">
-        <v>50.62931842731714</v>
+        <v>326.203808759672</v>
       </c>
       <c r="L18" t="n">
-        <v>478.4167050432619</v>
+        <v>753.9911953756168</v>
       </c>
       <c r="M18" t="n">
-        <v>1035.760922695</v>
+        <v>1311.335413027355</v>
       </c>
       <c r="N18" t="n">
-        <v>1621.251286365768</v>
+        <v>1714.772304204092</v>
       </c>
       <c r="O18" t="n">
-        <v>2081.352352730404</v>
+        <v>2174.873370568727</v>
       </c>
       <c r="P18" t="n">
-        <v>2437.944903527533</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.465921365857</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>206.1956669690496</v>
+        <v>53.7150119948266</v>
       </c>
       <c r="C19" t="n">
-        <v>204.1826508145605</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="D19" t="n">
-        <v>204.1826508145605</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="E19" t="n">
-        <v>204.1826508145605</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033757</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="G19" t="n">
         <v>50.62931842731714</v>
@@ -5683,7 +5683,7 @@
         <v>403.7082365724611</v>
       </c>
       <c r="N19" t="n">
-        <v>558.7438668194014</v>
+        <v>558.7438668194015</v>
       </c>
       <c r="O19" t="n">
         <v>691.0258112748513</v>
@@ -5692,31 +5692,31 @@
         <v>782.931691199069</v>
       </c>
       <c r="Q19" t="n">
-        <v>777.8750201665677</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R19" t="n">
-        <v>777.8750201665677</v>
+        <v>644.3863353897066</v>
       </c>
       <c r="S19" t="n">
-        <v>736.0225190474318</v>
+        <v>602.5338342705708</v>
       </c>
       <c r="T19" t="n">
-        <v>671.4895681795822</v>
+        <v>538.0008834027211</v>
       </c>
       <c r="U19" t="n">
-        <v>551.9155975708018</v>
+        <v>418.4269127939407</v>
       </c>
       <c r="V19" t="n">
-        <v>458.783246513055</v>
+        <v>325.2945617361939</v>
       </c>
       <c r="W19" t="n">
-        <v>340.2297984142847</v>
+        <v>206.7411136374237</v>
       </c>
       <c r="X19" t="n">
-        <v>276.5802876934911</v>
+        <v>143.0916029166301</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.1480822695988</v>
+        <v>69.66742729537577</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5735,10 @@
         <v>931.9619764121851</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021228</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961238</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G20" t="n">
         <v>210.2741582720861</v>
@@ -5759,16 +5759,16 @@
         <v>907.9461548436961</v>
       </c>
       <c r="M20" t="n">
-        <v>1358.227155577603</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N20" t="n">
-        <v>1831.732426143464</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O20" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355414</v>
       </c>
       <c r="P20" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.465921365857</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.813312877968</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189227</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D21" t="n">
         <v>616.2710031091337</v>
       </c>
       <c r="E21" t="n">
-        <v>469.242993166005</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F21" t="n">
         <v>334.5491951158793</v>
@@ -5829,19 +5829,19 @@
         <v>50.62931842731714</v>
       </c>
       <c r="J21" t="n">
-        <v>50.62931842731714</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K21" t="n">
-        <v>326.203808759672</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="L21" t="n">
-        <v>753.9911953756167</v>
+        <v>377.7365381371098</v>
       </c>
       <c r="M21" t="n">
-        <v>1311.335413027355</v>
+        <v>935.0807557888481</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.571119459617</v>
+        <v>1520.571119459616</v>
       </c>
       <c r="O21" t="n">
         <v>1980.672185824252</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.2523380015509</v>
+        <v>53.7150119948266</v>
       </c>
       <c r="C22" t="n">
-        <v>209.2393218470618</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="D22" t="n">
-        <v>203.7110100790188</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70199584033757</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033757</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="G22" t="n">
         <v>50.62931842731714</v>
@@ -5920,7 +5920,7 @@
         <v>403.7082365724611</v>
       </c>
       <c r="N22" t="n">
-        <v>558.7438668194014</v>
+        <v>558.7438668194015</v>
       </c>
       <c r="O22" t="n">
         <v>691.0258112748513</v>
@@ -5944,16 +5944,16 @@
         <v>556.9722686033031</v>
       </c>
       <c r="V22" t="n">
-        <v>463.8399175455563</v>
+        <v>306.3025915388318</v>
       </c>
       <c r="W22" t="n">
-        <v>345.286469446786</v>
+        <v>187.7491434400616</v>
       </c>
       <c r="X22" t="n">
-        <v>281.6369587259924</v>
+        <v>124.099632719268</v>
       </c>
       <c r="Y22" t="n">
-        <v>227.2047533021001</v>
+        <v>69.66742729537577</v>
       </c>
     </row>
     <row r="23">
@@ -5981,31 +5981,31 @@
         <v>210.2741582720861</v>
       </c>
       <c r="H23" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I23" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J23" t="n">
-        <v>167.8985774144699</v>
+        <v>131.2819911811621</v>
       </c>
       <c r="K23" t="n">
-        <v>475.8880155938953</v>
+        <v>439.2714293605875</v>
       </c>
       <c r="L23" t="n">
-        <v>719.297316177373</v>
+        <v>871.3295686103884</v>
       </c>
       <c r="M23" t="n">
-        <v>1206.194903144587</v>
+        <v>1358.227155577603</v>
       </c>
       <c r="N23" t="n">
-        <v>1679.700173710449</v>
+        <v>1831.732426143464</v>
       </c>
       <c r="O23" t="n">
-        <v>2074.574784355414</v>
+        <v>2226.607036788429</v>
       </c>
       <c r="P23" t="n">
-        <v>2379.433668932842</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.465921365857</v>
@@ -6014,7 +6014,7 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149685</v>
+        <v>2524.241286149684</v>
       </c>
       <c r="T23" t="n">
         <v>2469.867611227625</v>
@@ -6051,7 +6051,7 @@
         <v>616.2710031091337</v>
       </c>
       <c r="E24" t="n">
-        <v>469.242993166005</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F24" t="n">
         <v>334.5491951158793</v>
@@ -6060,13 +6060,13 @@
         <v>206.1118778881637</v>
       </c>
       <c r="H24" t="n">
-        <v>108.9862327738861</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I24" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J24" t="n">
-        <v>137.8463925088448</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K24" t="n">
         <v>413.4208828411996</v>
@@ -6075,16 +6075,16 @@
         <v>841.2082694571443</v>
       </c>
       <c r="M24" t="n">
-        <v>1398.552487108882</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.571119459616</v>
+        <v>1714.772304204091</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.672185824251</v>
+        <v>2174.873370568726</v>
       </c>
       <c r="P24" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.465921365856</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.2523380015509</v>
+        <v>53.7150119948266</v>
       </c>
       <c r="C25" t="n">
-        <v>209.2393218470618</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="D25" t="n">
-        <v>209.2393218470618</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="E25" t="n">
-        <v>57.23030760838066</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033759</v>
+        <v>51.70199584033755</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I25" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J25" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K25" t="n">
         <v>112.0311552538833</v>
@@ -6172,25 +6172,25 @@
         <v>782.931691199069</v>
       </c>
       <c r="S25" t="n">
-        <v>741.0791900799331</v>
+        <v>583.5418640732087</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120835</v>
+        <v>519.008913205359</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9722686033031</v>
+        <v>399.4349425965786</v>
       </c>
       <c r="V25" t="n">
-        <v>463.8399175455563</v>
+        <v>306.3025915388318</v>
       </c>
       <c r="W25" t="n">
-        <v>345.286469446786</v>
+        <v>187.7491434400616</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259924</v>
+        <v>124.099632719268</v>
       </c>
       <c r="Y25" t="n">
-        <v>227.2047533021001</v>
+        <v>69.66742729537577</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476238</v>
+        <v>1803.517264476237</v>
       </c>
       <c r="C26" t="n">
         <v>1525.118002027183</v>
@@ -6209,19 +6209,19 @@
         <v>1255.828533472544</v>
       </c>
       <c r="E26" t="n">
-        <v>964.577309796789</v>
+        <v>964.5773097967885</v>
       </c>
       <c r="F26" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250966</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353664</v>
+        <v>341.9353438353659</v>
       </c>
       <c r="H26" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I26" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J26" t="n">
         <v>288.6637597322124</v>
@@ -6230,19 +6230,19 @@
         <v>698.1273576550345</v>
       </c>
       <c r="L26" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610935</v>
       </c>
       <c r="M26" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321546</v>
       </c>
       <c r="N26" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630804</v>
       </c>
       <c r="O26" t="n">
-        <v>2891.359604056463</v>
+        <v>2790.032529019166</v>
       </c>
       <c r="P26" t="n">
-        <v>3297.692648377287</v>
+        <v>3196.36557333999</v>
       </c>
       <c r="Q26" t="n">
         <v>3449.871985516403</v>
@@ -6251,10 +6251,10 @@
         <v>3496.017050083146</v>
       </c>
       <c r="S26" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U26" t="n">
         <v>3154.974523052695</v>
@@ -6263,13 +6263,13 @@
         <v>2921.529745166774</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776119</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5340157403508</v>
+        <v>488.5340157403507</v>
       </c>
       <c r="F27" t="n">
         <v>353.8402176902251</v>
@@ -6300,28 +6300,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I27" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J27" t="n">
-        <v>157.1374150831905</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="K27" t="n">
-        <v>432.7119054155454</v>
+        <v>345.4948313340178</v>
       </c>
       <c r="L27" t="n">
-        <v>860.4992920314901</v>
+        <v>773.2822179499626</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.843509683228</v>
+        <v>1330.626435601701</v>
       </c>
       <c r="N27" t="n">
-        <v>1539.862142033962</v>
+        <v>1916.116799272469</v>
       </c>
       <c r="O27" t="n">
-        <v>1999.963208398597</v>
+        <v>2376.217865637104</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.555759195727</v>
+        <v>2550.756943940202</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.096001248593</v>
+        <v>435.0960012485931</v>
       </c>
       <c r="C28" t="n">
         <v>369.014527928411</v>
@@ -6373,28 +6373,28 @@
         <v>222.0564541976827</v>
       </c>
       <c r="G28" t="n">
-        <v>156.9153196189694</v>
+        <v>156.9153196189693</v>
       </c>
       <c r="H28" t="n">
-        <v>103.2476000974932</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I28" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J28" t="n">
-        <v>129.4480754567082</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K28" t="n">
-        <v>292.324072026671</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L28" t="n">
-        <v>529.9767315995733</v>
+        <v>529.9767315995728</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320424</v>
+        <v>786.9494728320418</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O28" t="n">
         <v>1277.215367021226</v>
@@ -6403,31 +6403,31 @@
         <v>1470.59540668884</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362879</v>
       </c>
       <c r="R28" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771654</v>
       </c>
       <c r="S28" t="n">
         <v>1413.402053486826</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453284</v>
+        <v>1284.800645453283</v>
       </c>
       <c r="U28" t="n">
         <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.95740945537</v>
+        <v>943.9574094553699</v>
       </c>
       <c r="W28" t="n">
-        <v>761.3355041909068</v>
+        <v>761.3355041909067</v>
       </c>
       <c r="X28" t="n">
         <v>633.6175363044202</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148352</v>
+        <v>515.1168737148353</v>
       </c>
     </row>
     <row r="29">
@@ -6446,55 +6446,55 @@
         <v>1255.828533472545</v>
       </c>
       <c r="E29" t="n">
-        <v>964.577309796789</v>
+        <v>964.5773097967893</v>
       </c>
       <c r="F29" t="n">
-        <v>653.960615325097</v>
+        <v>653.9606153250974</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353664</v>
+        <v>341.9353438353667</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I29" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K29" t="n">
-        <v>698.1273576550346</v>
+        <v>596.8002826177384</v>
       </c>
       <c r="L29" t="n">
-        <v>1231.659656648232</v>
+        <v>1130.332581610936</v>
       </c>
       <c r="M29" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N29" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O29" t="n">
-        <v>2891.359604056463</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.36557333999</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516403</v>
+        <v>3449.871985516404</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083146</v>
+        <v>3496.017050083147</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T29" t="n">
         <v>3306.281825613528</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V29" t="n">
         <v>2921.529745166774</v>
@@ -6525,7 +6525,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F30" t="n">
         <v>353.8402176902251</v>
@@ -6537,28 +6537,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I30" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J30" t="n">
-        <v>157.1374150831905</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="K30" t="n">
-        <v>432.7119054155454</v>
+        <v>163.4413588399857</v>
       </c>
       <c r="L30" t="n">
-        <v>860.4992920314901</v>
+        <v>591.2287454559304</v>
       </c>
       <c r="M30" t="n">
-        <v>1417.843509683228</v>
+        <v>1148.572963107669</v>
       </c>
       <c r="N30" t="n">
-        <v>1539.862142033962</v>
+        <v>1734.063326778437</v>
       </c>
       <c r="O30" t="n">
-        <v>1999.963208398597</v>
+        <v>2194.164393143072</v>
       </c>
       <c r="P30" t="n">
-        <v>2356.555759195727</v>
+        <v>2550.756943940202</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.756943940202</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485935</v>
+        <v>435.0960012485934</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284115</v>
+        <v>369.0145279284114</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743119</v>
+        <v>319.4771309743118</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537685</v>
+        <v>271.0026129537683</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976833</v>
+        <v>222.0564541976831</v>
       </c>
       <c r="G31" t="n">
-        <v>156.91531961897</v>
+        <v>156.9153196189698</v>
       </c>
       <c r="H31" t="n">
-        <v>103.2476000974939</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
-        <v>129.4480754567082</v>
+        <v>129.448075456708</v>
       </c>
       <c r="K31" t="n">
-        <v>292.324072026671</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995733</v>
+        <v>529.976731599573</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320424</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N31" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O31" t="n">
         <v>1277.215367021226</v>
       </c>
       <c r="P31" t="n">
-        <v>1470.595406688841</v>
+        <v>1470.59540668884</v>
       </c>
       <c r="Q31" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R31" t="n">
         <v>1519.323011771655</v>
@@ -6649,7 +6649,7 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U31" t="n">
         <v>1101.15821767881</v>
@@ -6661,10 +6661,10 @@
         <v>761.3355041909073</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044208</v>
+        <v>633.6175363044207</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148356</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>1525.118002027183</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.828533472545</v>
+        <v>1255.828533472544</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967892</v>
+        <v>964.5773097967888</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250973</v>
+        <v>653.9606153250968</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353657</v>
+        <v>341.9353438353662</v>
       </c>
       <c r="H32" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I32" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J32" t="n">
-        <v>187.3366846949149</v>
+        <v>288.6637597322125</v>
       </c>
       <c r="K32" t="n">
-        <v>596.8002826177371</v>
+        <v>698.1273576550348</v>
       </c>
       <c r="L32" t="n">
-        <v>1130.332581610935</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.704328321546</v>
+        <v>1820.031403358844</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.683758630804</v>
+        <v>2395.010833668101</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.032529019166</v>
+        <v>2891.359604056463</v>
       </c>
       <c r="P32" t="n">
-        <v>3196.36557333999</v>
+        <v>3297.692648377288</v>
       </c>
       <c r="Q32" t="n">
         <v>3449.871985516403</v>
@@ -6725,7 +6725,7 @@
         <v>3496.017050083146</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.72395770128</v>
+        <v>3424.723957701281</v>
       </c>
       <c r="T32" t="n">
         <v>3306.281825613528</v>
@@ -6743,7 +6743,7 @@
         <v>2384.033666982144</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.02630777612</v>
+        <v>2094.026307776119</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E33" t="n">
-        <v>488.5340157403507</v>
+        <v>488.5340157403508</v>
       </c>
       <c r="F33" t="n">
         <v>353.8402176902251</v>
@@ -6774,28 +6774,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I33" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J33" t="n">
-        <v>69.92034100166292</v>
+        <v>157.1374150831905</v>
       </c>
       <c r="K33" t="n">
-        <v>163.4413588399856</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="L33" t="n">
-        <v>591.2287454559304</v>
+        <v>860.4992920314903</v>
       </c>
       <c r="M33" t="n">
-        <v>1148.572963107669</v>
+        <v>1417.843509683229</v>
       </c>
       <c r="N33" t="n">
-        <v>1734.063326778437</v>
+        <v>1999.963208398597</v>
       </c>
       <c r="O33" t="n">
-        <v>2194.164393143072</v>
+        <v>1999.963208398597</v>
       </c>
       <c r="P33" t="n">
-        <v>2550.756943940202</v>
+        <v>2356.555759195726</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.756943940202</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485929</v>
+        <v>435.0960012485933</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284109</v>
+        <v>369.0145279284113</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743113</v>
+        <v>319.4771309743117</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537679</v>
+        <v>271.0026129537682</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976827</v>
+        <v>222.056454197683</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189693</v>
+        <v>156.9153196189696</v>
       </c>
       <c r="H34" t="n">
-        <v>103.2476000974932</v>
+        <v>103.2476000974933</v>
       </c>
       <c r="I34" t="n">
-        <v>69.92034100166292</v>
+        <v>69.92034100166293</v>
       </c>
       <c r="J34" t="n">
         <v>129.448075456708</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266709</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995732</v>
+        <v>529.9767315995731</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320415</v>
+        <v>786.949472832042</v>
       </c>
       <c r="N34" t="n">
         <v>1043.459262822379</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.215367021225</v>
+        <v>1277.215367021226</v>
       </c>
       <c r="P34" t="n">
-        <v>1470.595406688839</v>
+        <v>1470.59540668884</v>
       </c>
       <c r="Q34" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486825</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T34" t="n">
         <v>1284.800645453283</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.158217678809</v>
+        <v>1101.15821767881</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553699</v>
+        <v>943.9574094553702</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909067</v>
+        <v>761.335504190907</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044202</v>
+        <v>633.6175363044207</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.116873714835</v>
+        <v>515.1168737148355</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338415</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D35" t="n">
-        <v>989.711620901875</v>
+        <v>989.7116209018764</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442184</v>
+        <v>749.0539373442193</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906251</v>
+        <v>489.0307829906258</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J35" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932082</v>
+        <v>479.7379918932083</v>
       </c>
       <c r="L35" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430092</v>
       </c>
       <c r="M35" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N35" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P35" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q35" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R35" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S35" t="n">
         <v>2703.265184067726</v>
@@ -6974,13 +6974,13 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W35" t="n">
-        <v>2143.444698081351</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.542593939081</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J36" t="n">
-        <v>141.6963688081575</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K36" t="n">
-        <v>141.6963688081575</v>
+        <v>330.0537850589848</v>
       </c>
       <c r="L36" t="n">
-        <v>569.4837554241022</v>
+        <v>757.8411716749296</v>
       </c>
       <c r="M36" t="n">
-        <v>1126.82797307584</v>
+        <v>1315.185389326668</v>
       </c>
       <c r="N36" t="n">
-        <v>1712.318336746609</v>
+        <v>1900.675752997436</v>
       </c>
       <c r="O36" t="n">
-        <v>2172.419403111244</v>
+        <v>2360.776819362072</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.114712920693</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.315897665168</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.58900179270616</v>
+        <v>87.58900179270617</v>
       </c>
       <c r="C37" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="D37" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="E37" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="F37" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062256</v>
       </c>
       <c r="G37" t="n">
-        <v>57.55347413000759</v>
+        <v>57.5534741300076</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K37" t="n">
         <v>115.881131553196</v>
@@ -7102,37 +7102,37 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M37" t="n">
-        <v>407.5582128717738</v>
+        <v>407.5582128717739</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187143</v>
       </c>
       <c r="O37" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741642</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="Q37" t="n">
-        <v>768.6858659787842</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R37" t="n">
-        <v>768.6858659787842</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="S37" t="n">
-        <v>713.3584478120539</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T37" t="n">
-        <v>635.3505798966097</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U37" t="n">
-        <v>502.3016922402347</v>
+        <v>500.6835176324309</v>
       </c>
       <c r="V37" t="n">
-        <v>395.6944241348934</v>
+        <v>394.0762495270897</v>
       </c>
       <c r="W37" t="n">
-        <v>263.6660589885287</v>
+        <v>262.0478843807248</v>
       </c>
       <c r="X37" t="n">
         <v>184.9234566123367</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338415</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018759</v>
+        <v>989.711620901875</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442189</v>
+        <v>749.0539373442184</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906251</v>
       </c>
       <c r="G38" t="n">
         <v>227.5990516189933</v>
@@ -7172,19 +7172,19 @@
         <v>54.47929472662987</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K38" t="n">
-        <v>479.737991893208</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7961311430088</v>
+        <v>911.7961311430089</v>
       </c>
       <c r="M38" t="n">
         <v>1398.693718110223</v>
       </c>
       <c r="N38" t="n">
-        <v>1872.198988676084</v>
+        <v>1872.198988676085</v>
       </c>
       <c r="O38" t="n">
         <v>2267.07359932105</v>
@@ -7211,13 +7211,13 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081351</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7260,16 @@
         <v>845.0582457564572</v>
       </c>
       <c r="M39" t="n">
-        <v>1402.402463408195</v>
+        <v>1133.131916832635</v>
       </c>
       <c r="N39" t="n">
-        <v>1524.421095758928</v>
+        <v>1718.622280503403</v>
       </c>
       <c r="O39" t="n">
-        <v>1984.522162123563</v>
+        <v>2178.723346868039</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.114712920693</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.315897665168</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.3029779201073</v>
+        <v>89.20717640051021</v>
       </c>
       <c r="C40" t="n">
-        <v>72.10106859062255</v>
+        <v>73.7192431984266</v>
       </c>
       <c r="D40" t="n">
-        <v>72.10106859062255</v>
+        <v>73.7192431984266</v>
       </c>
       <c r="E40" t="n">
-        <v>72.10106859062255</v>
+        <v>73.7192431984266</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062255</v>
+        <v>73.7192431984266</v>
       </c>
       <c r="G40" t="n">
         <v>57.55347413000759</v>
@@ -7339,43 +7339,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M40" t="n">
-        <v>407.5582128717738</v>
+        <v>407.5582128717739</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187143</v>
       </c>
       <c r="O40" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741642</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="Q40" t="n">
-        <v>786.7816674983816</v>
+        <v>768.6858659787845</v>
       </c>
       <c r="R40" t="n">
-        <v>786.7816674983816</v>
+        <v>768.6858659787845</v>
       </c>
       <c r="S40" t="n">
-        <v>731.4542493316512</v>
+        <v>713.3584478120541</v>
       </c>
       <c r="T40" t="n">
-        <v>653.446381416207</v>
+        <v>635.3505798966099</v>
       </c>
       <c r="U40" t="n">
-        <v>520.3974937598321</v>
+        <v>502.301692240235</v>
       </c>
       <c r="V40" t="n">
-        <v>413.7902256544908</v>
+        <v>395.6944241348937</v>
       </c>
       <c r="W40" t="n">
-        <v>281.761860508126</v>
+        <v>263.6660589885289</v>
       </c>
       <c r="X40" t="n">
-        <v>204.6374327397378</v>
+        <v>186.5416312201407</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.730310268251</v>
+        <v>118.6345087486539</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C41" t="n">
         <v>1208.407549338417</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018769</v>
+        <v>989.7116209018766</v>
       </c>
       <c r="E41" t="n">
-        <v>749.05393734422</v>
+        <v>749.0539373442195</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906266</v>
+        <v>489.0307829906261</v>
       </c>
       <c r="G41" t="n">
-        <v>227.5990516189932</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J41" t="n">
         <v>171.7485537137827</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932082</v>
+        <v>479.7379918932081</v>
       </c>
       <c r="L41" t="n">
         <v>911.796131143009</v>
@@ -7430,16 +7430,16 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q41" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R41" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S41" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U41" t="n">
         <v>2534.702829655338</v>
@@ -7454,7 +7454,7 @@
         <v>1915.542593939082</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J42" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K42" t="n">
-        <v>330.0537850589847</v>
+        <v>310.391678617606</v>
       </c>
       <c r="L42" t="n">
-        <v>757.8411716749295</v>
+        <v>738.1790652335508</v>
       </c>
       <c r="M42" t="n">
-        <v>1315.185389326668</v>
+        <v>1295.523282885289</v>
       </c>
       <c r="N42" t="n">
-        <v>1900.675752997436</v>
+        <v>1881.013646556057</v>
       </c>
       <c r="O42" t="n">
-        <v>1984.522162123563</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="P42" t="n">
         <v>2341.114712920693</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.3029779201083</v>
+        <v>87.589001792706</v>
       </c>
       <c r="C43" t="n">
-        <v>91.81504471802486</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="D43" t="n">
-        <v>91.81504471802486</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="E43" t="n">
-        <v>91.81504471802486</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="F43" t="n">
-        <v>91.81504471802486</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="G43" t="n">
-        <v>77.26745025741005</v>
+        <v>57.55347413000754</v>
       </c>
       <c r="H43" t="n">
-        <v>74.19327085403248</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I43" t="n">
-        <v>74.19327085403248</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K43" t="n">
         <v>115.881131553196</v>
@@ -7576,43 +7576,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5582128717738</v>
+        <v>407.5582128717739</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187143</v>
       </c>
       <c r="O43" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741642</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4542493316513</v>
+        <v>731.4542493316516</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4463814162073</v>
+        <v>653.4463814162075</v>
       </c>
       <c r="U43" t="n">
-        <v>520.3974937598324</v>
+        <v>500.6835176324304</v>
       </c>
       <c r="V43" t="n">
-        <v>413.7902256544912</v>
+        <v>394.0762495270892</v>
       </c>
       <c r="W43" t="n">
-        <v>281.7618605081266</v>
+        <v>262.0478843807245</v>
       </c>
       <c r="X43" t="n">
-        <v>204.6374327397386</v>
+        <v>184.9234566123364</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.7303102682519</v>
+        <v>117.0163341408497</v>
       </c>
     </row>
     <row r="44">
@@ -7622,64 +7622,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C44" t="n">
         <v>1208.407549338416</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018761</v>
+        <v>989.7116209018754</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442191</v>
+        <v>749.0539373442184</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906253</v>
       </c>
       <c r="G44" t="n">
         <v>227.5990516189933</v>
       </c>
       <c r="H44" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I44" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137827</v>
       </c>
       <c r="K44" t="n">
         <v>479.7379918932082</v>
       </c>
       <c r="L44" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430091</v>
       </c>
       <c r="M44" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N44" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P44" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q44" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R44" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S44" t="n">
-        <v>2703.265184067726</v>
+        <v>2703.265184067727</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.416592098072</v>
+        <v>2635.416592098073</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V44" t="n">
         <v>2351.851591887515</v>
@@ -7688,10 +7688,10 @@
         <v>2143.444698081352</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y44" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I45" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J45" t="n">
-        <v>54.47929472662987</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K45" t="n">
-        <v>148.0003125649523</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L45" t="n">
-        <v>575.787699180897</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M45" t="n">
         <v>1133.131916832635</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270599</v>
+        <v>87.589001792706</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062243</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="G46" t="n">
-        <v>57.55347413000753</v>
+        <v>57.55347413000754</v>
       </c>
       <c r="H46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J46" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K46" t="n">
         <v>115.881131553196</v>
@@ -7813,22 +7813,22 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M46" t="n">
-        <v>407.5582128717738</v>
+        <v>407.5582128717739</v>
       </c>
       <c r="N46" t="n">
-        <v>562.5938431187142</v>
+        <v>562.5938431187143</v>
       </c>
       <c r="O46" t="n">
-        <v>694.875787574164</v>
+        <v>694.8757875741642</v>
       </c>
       <c r="P46" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="Q46" t="n">
-        <v>786.7816674983816</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R46" t="n">
-        <v>786.7816674983816</v>
+        <v>767.0676913709797</v>
       </c>
       <c r="S46" t="n">
         <v>711.7402732042494</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8699,13 +8699,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>377.9966192443434</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>346.237735088411</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>421.524186416382</v>
       </c>
       <c r="N12" t="n">
-        <v>154.9918226869893</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>76.9376611833964</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K14" t="n">
-        <v>230.8346538512782</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>584.3675935406823</v>
+        <v>512.267008006166</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -9012,16 +9012,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>497.4578146700451</v>
       </c>
       <c r="N15" t="n">
-        <v>154.9918226869893</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>53.80710347724197</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9164,13 +9164,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>230.8346538512781</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>393.8132110494463</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9243,7 +9243,7 @@
         <v>75.82029131472584</v>
       </c>
       <c r="K18" t="n">
-        <v>65.44673707356949</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>439.2526901880019</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>171.4033357675617</v>
+        <v>76.93766118339641</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9407,19 +9407,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>547.3811427999673</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>304.4858531503329</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.4415561073552</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,19 +9477,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356948</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>292.2972559776488</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>243.0898773147948</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>182.8391489829809</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>352.4051964243501</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
         <v>584.3675935406823</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>122.4415561073551</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>154.9918226869883</v>
+        <v>351.1546355601955</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339641</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,16 +9963,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>154.9918226869888</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>230.1092027733001</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339641</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472585</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>159.9124116577339</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>154.9918226869888</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339644</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>159.9124116577339</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>619.7403745704578</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>47.27246317627815</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.93766118339644</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10586,7 +10586,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>421.3890363425143</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K36" t="n">
-        <v>65.44673707356949</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>224.2064063150694</v>
+        <v>230.1092027732992</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>76.9376611833964</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10826,7 +10826,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155854</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10835,7 +10835,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415692</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
@@ -10908,10 +10908,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>333.4261317885751</v>
       </c>
       <c r="N39" t="n">
-        <v>154.9918226869879</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>76.9376611833964</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11075,7 +11075,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229277</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>75.82029131472584</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>323.9440945392019</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,10 +11151,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>131.9658057279225</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>53.80710347724197</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11297,7 +11297,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425143</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -11373,16 +11373,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>159.9124116577335</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>333.4261317885751</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.93766118339644</v>
+        <v>76.9376611833964</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.6173450803365</v>
+        <v>301.1059717842872</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>280.0985927864969</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.7597296842796</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>115.5470924272125</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>80.08465714300193</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196311</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774256</v>
+        <v>61.49179175774262</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592887</v>
+        <v>61.95871608592893</v>
       </c>
       <c r="G13" t="n">
-        <v>41.24560752542949</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227657</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271698</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>118.363767619385</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.1059717842871</v>
+        <v>301.1059717842872</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>25.48171182702139</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>128.7139150498298</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.32070768241314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.08218037545171</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.7597296842796</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526289</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244662</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313685</v>
+        <v>300.6093045313686</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.13845059993554</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.54404190196317</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.95871608592893</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.098469488943365</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>194.2977051292231</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250261</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1015406.9567282</v>
+        <v>1015406.956728199</v>
       </c>
     </row>
     <row r="7">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>363791.3999659696</v>
+        <v>363791.3999659694</v>
       </c>
       <c r="C2" t="n">
         <v>363791.3999659695</v>
       </c>
       <c r="D2" t="n">
-        <v>363791.3999659694</v>
+        <v>363791.3999659695</v>
       </c>
       <c r="E2" t="n">
-        <v>317911.2291068894</v>
+        <v>317911.2291068892</v>
       </c>
       <c r="F2" t="n">
-        <v>317911.2291068893</v>
+        <v>317911.2291068892</v>
       </c>
       <c r="G2" t="n">
         <v>364621.4287347363</v>
       </c>
       <c r="H2" t="n">
-        <v>364621.4287347365</v>
+        <v>364621.4287347364</v>
       </c>
       <c r="I2" t="n">
-        <v>364621.4287347364</v>
+        <v>364621.4287347363</v>
       </c>
       <c r="J2" t="n">
         <v>364621.4287347356</v>
@@ -26341,19 +26341,19 @@
         <v>364621.4287347355</v>
       </c>
       <c r="L2" t="n">
-        <v>364621.4287347355</v>
+        <v>364621.4287347356</v>
       </c>
       <c r="M2" t="n">
+        <v>364621.4287347365</v>
+      </c>
+      <c r="N2" t="n">
         <v>364621.4287347367</v>
       </c>
-      <c r="N2" t="n">
-        <v>364621.4287347369</v>
-      </c>
       <c r="O2" t="n">
+        <v>364621.4287347367</v>
+      </c>
+      <c r="P2" t="n">
         <v>364621.4287347366</v>
-      </c>
-      <c r="P2" t="n">
-        <v>364621.4287347367</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149714</v>
+        <v>367830.3395149715</v>
       </c>
       <c r="F3" t="n">
-        <v>6.58084380639983e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915236</v>
+        <v>61543.83320915249</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613921</v>
+        <v>83547.74167613912</v>
       </c>
       <c r="K3" t="n">
-        <v>7.71771218361599e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915236</v>
+        <v>61543.83320915248</v>
       </c>
       <c r="M3" t="n">
         <v>149683.3109415065</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.48779561274</v>
+        <v>20455.48779561258</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>255024.1601164462</v>
       </c>
       <c r="F4" t="n">
-        <v>255024.1601164463</v>
+        <v>255024.1601164462</v>
       </c>
       <c r="G4" t="n">
         <v>310950.7206745581</v>
@@ -26442,16 +26442,16 @@
         <v>309193.0084127064</v>
       </c>
       <c r="K4" t="n">
+        <v>309193.0084127065</v>
+      </c>
+      <c r="L4" t="n">
         <v>309193.0084127064</v>
       </c>
-      <c r="L4" t="n">
-        <v>309193.0084127065</v>
-      </c>
       <c r="M4" t="n">
-        <v>308176.3362657602</v>
+        <v>308176.3362657601</v>
       </c>
       <c r="N4" t="n">
-        <v>308176.3362657602</v>
+        <v>308176.3362657601</v>
       </c>
       <c r="O4" t="n">
         <v>308176.3362657602</v>
@@ -26479,28 +26479,28 @@
         <v>48881.83299975545</v>
       </c>
       <c r="F5" t="n">
-        <v>48881.83299975546</v>
+        <v>48881.83299975545</v>
       </c>
       <c r="G5" t="n">
-        <v>55349.24364233074</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="H5" t="n">
-        <v>55349.24364233074</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="I5" t="n">
         <v>55349.24364233075</v>
       </c>
       <c r="J5" t="n">
+        <v>64678.11138462553</v>
+      </c>
+      <c r="K5" t="n">
+        <v>64678.11138462555</v>
+      </c>
+      <c r="L5" t="n">
         <v>64678.11138462554</v>
       </c>
-      <c r="K5" t="n">
-        <v>64678.11138462553</v>
-      </c>
-      <c r="L5" t="n">
-        <v>64678.11138462553</v>
-      </c>
       <c r="M5" t="n">
-        <v>57153.73105654694</v>
+        <v>57153.73105654695</v>
       </c>
       <c r="N5" t="n">
         <v>57153.73105654694</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71443.60644833816</v>
+        <v>-71447.97502080553</v>
       </c>
       <c r="C6" t="n">
-        <v>-71443.60644833822</v>
+        <v>-71447.97502080542</v>
       </c>
       <c r="D6" t="n">
-        <v>-71443.6064483384</v>
+        <v>-71447.97502080548</v>
       </c>
       <c r="E6" t="n">
-        <v>-353825.1035242837</v>
+        <v>-354070.94668022</v>
       </c>
       <c r="F6" t="n">
-        <v>14005.2359906875</v>
+        <v>13759.3928347515</v>
       </c>
       <c r="G6" t="n">
-        <v>-63222.36879130493</v>
+        <v>-63222.36879130511</v>
       </c>
       <c r="H6" t="n">
-        <v>-1678.535582152363</v>
+        <v>-1678.535582152428</v>
       </c>
       <c r="I6" t="n">
-        <v>-1678.535582152545</v>
+        <v>-1678.535582152603</v>
       </c>
       <c r="J6" t="n">
-        <v>-92797.43273873557</v>
+        <v>-92797.43273873544</v>
       </c>
       <c r="K6" t="n">
-        <v>-9249.691062596554</v>
+        <v>-9249.69106259651</v>
       </c>
       <c r="L6" t="n">
-        <v>-70793.52427174889</v>
+        <v>-70793.52427174879</v>
       </c>
       <c r="M6" t="n">
-        <v>-150391.9495290768</v>
+        <v>-150391.949529077</v>
       </c>
       <c r="N6" t="n">
-        <v>-708.6385875701963</v>
+        <v>-708.6385875703127</v>
       </c>
       <c r="O6" t="n">
-        <v>-21164.12638318328</v>
+        <v>-21164.1263831831</v>
       </c>
       <c r="P6" t="n">
-        <v>-708.6385875704364</v>
+        <v>-708.63858757056</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499923</v>
@@ -26722,7 +26722,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="O2" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="P2" t="n">
         <v>152.5867559728738</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="F3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="G3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="H3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="I3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="J3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791157</v>
       </c>
       <c r="K3" t="n">
         <v>134.0206915791156</v>
       </c>
       <c r="L3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="M3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="N3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="O3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="P3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791158</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26808,28 @@
         <v>632.8664803414642</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8664803414644</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="J4" t="n">
+        <v>874.0042625207865</v>
+      </c>
+      <c r="K4" t="n">
+        <v>874.0042625207867</v>
+      </c>
+      <c r="L4" t="n">
         <v>874.0042625207866</v>
       </c>
-      <c r="K4" t="n">
-        <v>874.0042625207865</v>
-      </c>
-      <c r="L4" t="n">
-        <v>874.0042625207865</v>
-      </c>
       <c r="M4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828735</v>
       </c>
       <c r="N4" t="n">
         <v>680.9911840828734</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828735</v>
       </c>
       <c r="P4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828735</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="F2" t="n">
-        <v>8.226054757999787e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144044</v>
+        <v>76.92979151144061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451578</v>
+        <v>25.56935974451567</v>
       </c>
       <c r="K2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144044</v>
+        <v>76.9297915114406</v>
       </c>
       <c r="M2" t="n">
-        <v>50.0876047169174</v>
+        <v>50.08760471691744</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451592</v>
+        <v>25.56935974451572</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0206915791156</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="K2" t="n">
-        <v>8.226054757999787e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144044</v>
+        <v>76.92979151144061</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451578</v>
+        <v>25.56935974451567</v>
       </c>
       <c r="P2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855178</v>
+        <v>88.99713233855172</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855186</v>
+        <v>88.99713233855172</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S17" t="n">
         <v>165.9269238499923</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.058708676282549e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>165.9269238499923</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.90873918222511</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R19" t="n">
-        <v>137.1599022512688</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>165.9269238499923</v>
@@ -28788,7 +28788,7 @@
         <v>165.9269238499923</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9269238499923</v>
+        <v>147.1248733546039</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S20" t="n">
         <v>165.9269238499923</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28962,10 +28962,10 @@
         <v>165.9269238499923</v>
       </c>
       <c r="D22" t="n">
-        <v>146.0681455901523</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -29004,7 +29004,7 @@
         <v>17.91484350440139</v>
       </c>
       <c r="R22" t="n">
-        <v>137.1599022512688</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S22" t="n">
         <v>165.9269238499923</v>
@@ -29016,7 +29016,7 @@
         <v>165.9269238499923</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9269238499923</v>
+        <v>9.964971103335131</v>
       </c>
       <c r="W22" t="n">
         <v>165.9269238499923</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S23" t="n">
         <v>165.9269238499923</v>
@@ -29202,10 +29202,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>145.482819774118</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>165.9269238499923</v>
@@ -29241,10 +29241,10 @@
         <v>17.91484350440139</v>
       </c>
       <c r="R25" t="n">
-        <v>137.1599022512688</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9269238499923</v>
+        <v>9.964971103335102</v>
       </c>
       <c r="T25" t="n">
         <v>165.9269238499923</v>
@@ -29302,7 +29302,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102013869</v>
       </c>
       <c r="M26" t="n">
         <v>102.4991512559563</v>
@@ -29317,7 +29317,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1485704102021828</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R26" t="n">
         <v>102.4991512559563</v>
@@ -29536,7 +29536,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K29" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102026375</v>
       </c>
       <c r="L29" t="n">
         <v>102.4991512559563</v>
@@ -29551,7 +29551,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="P29" t="n">
-        <v>0.148570410200989</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="Q29" t="n">
         <v>102.4991512559563</v>
@@ -29770,7 +29770,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1485704102012875</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="K32" t="n">
         <v>102.4991512559563</v>
@@ -29791,7 +29791,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102016712</v>
       </c>
       <c r="R32" t="n">
         <v>102.4991512559563</v>
@@ -29937,7 +29937,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4991512559556</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="N34" t="n">
         <v>102.4991512559563</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S35" t="n">
         <v>152.5867559728737</v>
@@ -30165,7 +30165,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R37" t="n">
-        <v>137.1599022512688</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S37" t="n">
         <v>152.5867559728737</v>
@@ -30198,7 +30198,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067465</v>
       </c>
       <c r="V37" t="n">
         <v>152.5867559728737</v>
@@ -30207,7 +30207,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="X37" t="n">
-        <v>150.9847631111479</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y37" t="n">
         <v>152.5867559728737</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S38" t="n">
         <v>152.5867559728737</v>
@@ -30381,7 +30381,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="C40" t="n">
-        <v>133.0699196067466</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.5867559728737</v>
+        <v>150.9847631111477</v>
       </c>
       <c r="H40" t="n">
         <v>152.5867559728737</v>
@@ -30402,7 +30402,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440139</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>137.1599022512688</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S40" t="n">
         <v>152.5867559728737</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I41" t="n">
         <v>150.3178400209649</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,16 +30630,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I43" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>22.85329018776202</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R43" t="n">
-        <v>137.1599022512688</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U43" t="n">
-        <v>152.5867559728739</v>
+        <v>133.0699196067457</v>
       </c>
       <c r="V43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.5867559728739</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.88797492591273</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S44" t="n">
         <v>152.5867559728738</v>
@@ -30876,7 +30876,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3701265538906</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440139</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R46" t="n">
-        <v>137.1599022512688</v>
+        <v>117.6430658851406</v>
       </c>
       <c r="S46" t="n">
-        <v>133.0699196067459</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T46" t="n">
         <v>152.5867559728738</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L11" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R11" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S11" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H12" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K12" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933942</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R12" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T12" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H13" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J13" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K13" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L13" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N13" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905066</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R13" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S13" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T13" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H14" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J14" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L14" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S14" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T14" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J15" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K15" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N15" t="n">
-        <v>74.97446216933942</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R15" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S15" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T15" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N16" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15989692905066</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P16" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R16" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T16" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H17" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I17" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J17" t="n">
-        <v>45.72799466095665</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L17" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S17" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J18" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K18" t="n">
-        <v>46.54943209309717</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R18" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S18" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T18" t="n">
         <v>1.161934109067993</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J19" t="n">
         <v>17.0865396460784</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N19" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P19" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R19" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T19" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H20" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I20" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J20" t="n">
-        <v>45.72799466095665</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L20" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S20" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J21" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K21" t="n">
-        <v>46.54943209309717</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R21" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S21" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T21" t="n">
         <v>1.161934109067993</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J22" t="n">
         <v>17.0865396460784</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N22" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P22" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R22" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T22" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H23" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I23" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J23" t="n">
-        <v>45.72799466095665</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L23" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S23" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J24" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K24" t="n">
-        <v>46.54943209309717</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R24" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S24" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T24" t="n">
         <v>1.161934109067993</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J25" t="n">
         <v>17.0865396460784</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N25" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P25" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R25" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T25" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H26" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350223</v>
       </c>
       <c r="I26" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232707</v>
       </c>
       <c r="J26" t="n">
-        <v>45.72799466095665</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L26" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S26" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194613</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.0431021319651427</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097961</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J27" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194087</v>
       </c>
       <c r="K27" t="n">
-        <v>46.54943209309717</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R27" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654682</v>
       </c>
       <c r="S27" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429761</v>
       </c>
       <c r="T27" t="n">
         <v>1.161934109067993</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459463</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J28" t="n">
         <v>17.0865396460784</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N28" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P28" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735335</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844647</v>
       </c>
       <c r="R28" t="n">
         <v>10.86666132049682</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T28" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614254</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642833</v>
       </c>
       <c r="H29" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350218</v>
       </c>
       <c r="I29" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232705</v>
       </c>
       <c r="J29" t="n">
-        <v>45.72799466095665</v>
+        <v>45.72799466095663</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701276</v>
       </c>
       <c r="L29" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611571</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780454</v>
       </c>
       <c r="N29" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337906</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427421</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815595</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563504</v>
       </c>
       <c r="R29" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319244</v>
       </c>
       <c r="S29" t="n">
         <v>12.27737290194612</v>
@@ -33214,7 +33214,7 @@
         <v>2.358494783467652</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514266</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097958</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634081</v>
       </c>
       <c r="I30" t="n">
-        <v>9.925117253736396</v>
+        <v>9.92511725373639</v>
       </c>
       <c r="J30" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194084</v>
       </c>
       <c r="K30" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309716</v>
       </c>
       <c r="L30" t="n">
-        <v>62.59145600588793</v>
+        <v>62.5914560058879</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061798</v>
       </c>
       <c r="N30" t="n">
-        <v>74.97446216933942</v>
+        <v>74.97446216933939</v>
       </c>
       <c r="O30" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483285</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690127</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149604</v>
       </c>
       <c r="R30" t="n">
-        <v>17.89808405654681</v>
+        <v>17.8980840565468</v>
       </c>
       <c r="S30" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429756</v>
       </c>
       <c r="T30" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067992</v>
       </c>
       <c r="U30" t="n">
         <v>0.01896519220459184</v>
@@ -33330,43 +33330,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459461</v>
       </c>
       <c r="H31" t="n">
         <v>2.148725186301232</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519909</v>
       </c>
       <c r="J31" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607839</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608355</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630912</v>
       </c>
       <c r="M31" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653589</v>
       </c>
       <c r="N31" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428285</v>
       </c>
       <c r="O31" t="n">
-        <v>34.15989692905066</v>
+        <v>34.15989692905065</v>
       </c>
       <c r="P31" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735333</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844645</v>
       </c>
       <c r="R31" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049681</v>
       </c>
       <c r="S31" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412532</v>
       </c>
       <c r="T31" t="n">
         <v>1.032618443314497</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S32" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K33" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933942</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R33" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J34" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905066</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P34" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R34" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T34" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I35" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J35" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L35" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R35" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S35" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K36" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933942</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R36" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J37" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N37" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905066</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P37" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R37" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T37" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I38" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J38" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L38" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R38" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S38" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K39" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933942</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R39" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J40" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N40" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905066</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P40" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R40" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T40" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L41" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S41" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933942</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R42" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J43" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N43" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905066</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R43" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T43" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642835</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350221</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232706</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095665</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701279</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L44" t="n">
-        <v>85.02299612611574</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780458</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337911</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427425</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815598</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.18181691563507</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319245</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S44" t="n">
-        <v>12.27737290194612</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467652</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04310213196514268</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097959</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634082</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736396</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194085</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54943209309717</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588793</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061801</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933942</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483288</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690129</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149606</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R45" t="n">
-        <v>17.89808405654681</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429758</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459184</v>
+        <v>0.01896519220459186</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459462</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301232</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519911</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J46" t="n">
-        <v>17.0865396460784</v>
+        <v>17.08653964607841</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608356</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630913</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653591</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N46" t="n">
-        <v>36.98311969428286</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905066</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P46" t="n">
-        <v>29.22969312735334</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844646</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R46" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412534</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T46" t="n">
-        <v>1.032618443314497</v>
+        <v>1.032618443314498</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01318236310614253</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.4537969567199</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L11" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M11" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N11" t="n">
-        <v>287.7337695954924</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O11" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P11" t="n">
-        <v>307.9382672499269</v>
+        <v>235.8376817154106</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.5679317505209</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>278.3580710427827</v>
@@ -35495,19 +35495,19 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M12" t="n">
-        <v>562.973957223978</v>
+        <v>379.0815607653602</v>
       </c>
       <c r="N12" t="n">
-        <v>123.2511437886204</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O12" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P12" t="n">
         <v>360.1944957546763</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466118</v>
+        <v>46.62700578466114</v>
       </c>
       <c r="K13" t="n">
         <v>151.0191897391236</v>
       </c>
       <c r="L13" t="n">
-        <v>226.5511725703756</v>
+        <v>226.5511725703755</v>
       </c>
       <c r="M13" t="n">
         <v>246.0664065699379</v>
@@ -35580,13 +35580,13 @@
         <v>245.598779052633</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511274</v>
+        <v>222.6152580511273</v>
       </c>
       <c r="P13" t="n">
         <v>181.8313544842261</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415039</v>
+        <v>71.08228883415035</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.4537969567199</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>120.5460601142443</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L14" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M14" t="n">
-        <v>491.8157444113277</v>
+        <v>419.7151588768116</v>
       </c>
       <c r="N14" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O14" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P14" t="n">
-        <v>307.9382672499269</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.5679317505209</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K15" t="n">
         <v>278.3580710427827</v>
@@ -35732,16 +35732,16 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M15" t="n">
-        <v>562.973957223978</v>
+        <v>455.0151890190233</v>
       </c>
       <c r="N15" t="n">
-        <v>123.2511437886204</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O15" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P15" t="n">
-        <v>360.1944957546763</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>196.1628128732074</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466126</v>
+        <v>46.62700578466114</v>
       </c>
       <c r="K16" t="n">
-        <v>151.0191897391237</v>
+        <v>151.0191897391236</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703757</v>
+        <v>226.5511725703755</v>
       </c>
       <c r="M16" t="n">
-        <v>246.066406569938</v>
+        <v>246.0664065699379</v>
       </c>
       <c r="N16" t="n">
-        <v>245.5987790526331</v>
+        <v>245.598779052633</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511275</v>
+        <v>222.6152580511273</v>
       </c>
       <c r="P16" t="n">
-        <v>181.8313544842262</v>
+        <v>181.8313544842261</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415048</v>
+        <v>71.08228883415035</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K17" t="n">
-        <v>311.1004426054802</v>
+        <v>120.5460601142442</v>
       </c>
       <c r="L17" t="n">
         <v>436.4223628785867</v>
       </c>
       <c r="M17" t="n">
-        <v>301.2613619200918</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N17" t="n">
         <v>478.2881520867284</v>
@@ -35899,10 +35899,10 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P17" t="n">
-        <v>307.9382672499269</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.5679317505209</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L18" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M18" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4044077482506</v>
+        <v>407.5120112896331</v>
       </c>
       <c r="O18" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P18" t="n">
         <v>360.1944957546763</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.46567458416524</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L19" t="n">
         <v>137.5540402318238</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K20" t="n">
         <v>311.1004426054802</v>
@@ -36127,19 +36127,19 @@
         <v>436.4223628785867</v>
       </c>
       <c r="M20" t="n">
-        <v>454.8292936706128</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N20" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8632430757227</v>
+        <v>208.3088605844868</v>
       </c>
       <c r="P20" t="n">
-        <v>307.9382672499269</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K21" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>432.1084713292371</v>
+        <v>242.313278412389</v>
       </c>
       <c r="M21" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N21" t="n">
-        <v>211.3491984164259</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O21" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P21" t="n">
         <v>360.1944957546763</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L22" t="n">
         <v>137.5540402318238</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.4537969567199</v>
+        <v>81.46734621600498</v>
       </c>
       <c r="K23" t="n">
         <v>311.1004426054802</v>
       </c>
       <c r="L23" t="n">
-        <v>245.8679803873512</v>
+        <v>436.4223628785867</v>
       </c>
       <c r="M23" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N23" t="n">
         <v>478.2881520867284</v>
@@ -36373,10 +36373,10 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P23" t="n">
-        <v>307.9382672499269</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.5679317505209</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M24" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N24" t="n">
-        <v>123.2511437886194</v>
+        <v>319.4139566618266</v>
       </c>
       <c r="O24" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P24" t="n">
         <v>360.1944957546763</v>
       </c>
       <c r="Q24" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L25" t="n">
         <v>137.5540402318238</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.9529482126762</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K26" t="n">
-        <v>413.5995938614366</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L26" t="n">
-        <v>538.921514134543</v>
+        <v>436.5709332887881</v>
       </c>
       <c r="M26" t="n">
         <v>594.3148956672841</v>
       </c>
       <c r="N26" t="n">
-        <v>580.7873033426846</v>
+        <v>580.7873033426847</v>
       </c>
       <c r="O26" t="n">
         <v>501.362394331679</v>
@@ -36613,10 +36613,10 @@
         <v>410.4374185058832</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.7165021607231</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R26" t="n">
-        <v>46.61117633004358</v>
+        <v>46.61117633004356</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>278.3580710427827</v>
@@ -36680,19 +36680,19 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M27" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N27" t="n">
-        <v>123.2511437886199</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O27" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P27" t="n">
-        <v>360.1944957546763</v>
+        <v>176.3020992960581</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.12902470206571</v>
+        <v>60.12902470206568</v>
       </c>
       <c r="K28" t="n">
         <v>164.5212086565282</v>
@@ -36771,7 +36771,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155492</v>
+        <v>84.58430775155489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.9529482126763</v>
+        <v>220.9529482126762</v>
       </c>
       <c r="K29" t="n">
-        <v>413.5995938614366</v>
+        <v>311.2490130156829</v>
       </c>
       <c r="L29" t="n">
-        <v>538.921514134543</v>
+        <v>538.9215141345429</v>
       </c>
       <c r="M29" t="n">
-        <v>594.3148956672841</v>
+        <v>594.314895667284</v>
       </c>
       <c r="N29" t="n">
-        <v>580.7873033426847</v>
+        <v>580.7873033426846</v>
       </c>
       <c r="O29" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P29" t="n">
-        <v>308.0868376601279</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q29" t="n">
-        <v>256.0670830064773</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004361</v>
+        <v>46.61117633004356</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>278.3580710427827</v>
+        <v>94.4656745841644</v>
       </c>
       <c r="L30" t="n">
-        <v>432.1084713292371</v>
+        <v>432.108471329237</v>
       </c>
       <c r="M30" t="n">
         <v>562.973957223978</v>
       </c>
       <c r="N30" t="n">
-        <v>123.2511437886199</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O30" t="n">
         <v>464.7485518834701</v>
@@ -36929,7 +36929,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q30" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206573</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K31" t="n">
         <v>164.5212086565282</v>
@@ -36996,7 +36996,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M31" t="n">
-        <v>259.5684254873425</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N31" t="n">
         <v>259.1007979700375</v>
@@ -37005,10 +37005,10 @@
         <v>236.1172769685319</v>
       </c>
       <c r="P31" t="n">
-        <v>195.3333734016307</v>
+        <v>195.3333734016306</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.58430775155495</v>
+        <v>84.5843077515549</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>118.6023673669212</v>
+        <v>220.9529482126763</v>
       </c>
       <c r="K32" t="n">
         <v>413.5995938614366</v>
@@ -37075,7 +37075,7 @@
         <v>538.921514134543</v>
       </c>
       <c r="M32" t="n">
-        <v>594.3148956672841</v>
+        <v>594.3148956672842</v>
       </c>
       <c r="N32" t="n">
         <v>580.7873033426847</v>
@@ -37087,10 +37087,10 @@
         <v>410.4374185058833</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0670830064773</v>
+        <v>153.7165021607227</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004361</v>
+        <v>46.6111763300436</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K33" t="n">
-        <v>94.46567458416436</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L33" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M33" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4044077482506</v>
+        <v>587.9996956720889</v>
       </c>
       <c r="O33" t="n">
-        <v>464.7485518834701</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>360.1944957546763</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206573</v>
+        <v>60.12902470206571</v>
       </c>
       <c r="K34" t="n">
         <v>164.5212086565282</v>
@@ -37233,7 +37233,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873417</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N34" t="n">
         <v>259.1007979700375</v>
@@ -37245,7 +37245,7 @@
         <v>195.3333734016307</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.58430775155495</v>
+        <v>84.58430775155492</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K35" t="n">
-        <v>311.1004426054804</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L35" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M35" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N35" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O35" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P35" t="n">
-        <v>307.9382672499269</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.5679317505209</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780565</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L36" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M36" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O36" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P36" t="n">
-        <v>170.3993028378274</v>
+        <v>176.3020992960572</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057189</v>
       </c>
       <c r="L37" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M37" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N37" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O37" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P37" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K38" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785866</v>
       </c>
       <c r="M38" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N38" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757229</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P38" t="n">
-        <v>307.9382672499269</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.5679317505209</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.09805462780565</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K39" t="n">
         <v>278.3580710427827</v>
@@ -37628,19 +37628,19 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M39" t="n">
-        <v>562.973957223978</v>
+        <v>290.9835061375533</v>
       </c>
       <c r="N39" t="n">
-        <v>123.251143788619</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O39" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P39" t="n">
         <v>360.1944957546763</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057189</v>
       </c>
       <c r="L40" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M40" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N40" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O40" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P40" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054802</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M41" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N41" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P41" t="n">
-        <v>307.9382672499269</v>
+        <v>307.9382672499272</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.5679317505209</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>278.3580710427827</v>
+        <v>258.4973574656324</v>
       </c>
       <c r="L42" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M42" t="n">
-        <v>562.973957223978</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O42" t="n">
-        <v>84.69334255164425</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P42" t="n">
-        <v>360.1944957546763</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>196.1628128732074</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057189</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M43" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N43" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O43" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K44" t="n">
-        <v>311.1004426054804</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M44" t="n">
-        <v>491.8157444113277</v>
+        <v>491.8157444113278</v>
       </c>
       <c r="N44" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P44" t="n">
-        <v>307.9382672499269</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.5679317505209</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K45" t="n">
-        <v>94.46567458416403</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L45" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M45" t="n">
-        <v>562.973957223978</v>
+        <v>290.9835061375533</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O45" t="n">
-        <v>464.7485518834701</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P45" t="n">
         <v>360.1944957546763</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057186</v>
+        <v>62.02205740057189</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M46" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N46" t="n">
-        <v>156.6016467140812</v>
+        <v>156.6016467140813</v>
       </c>
       <c r="O46" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567435</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
